--- a/EXCEL.xlsx
+++ b/EXCEL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="95">
   <si>
     <t>R.drawable.icon_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,9 +48,6 @@
   <si>
     <t xml:space="preserve"> CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>);</t>
   </si>
   <si>
     <t>スピード</t>
@@ -158,12 +155,208 @@
     <t>擴散彈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>シールドブレーカー</t>
+  </si>
+  <si>
+    <t>アンチダメージウォール</t>
+  </si>
+  <si>
+    <t>アンチワープ</t>
+  </si>
+  <si>
+    <t>魔王</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>魔封じ</t>
+  </si>
+  <si>
+    <t>ロボット</t>
+  </si>
+  <si>
+    <t>獣</t>
+  </si>
+  <si>
+    <t>ヒューマン</t>
+  </si>
+  <si>
+    <t>鉱物</t>
+  </si>
+  <si>
+    <t>ドラゴン</t>
+  </si>
+  <si>
+    <t>妖精</t>
+  </si>
+  <si>
+    <t>ユニバース</t>
+  </si>
+  <si>
+    <t>幻獣</t>
+  </si>
+  <si>
+    <t>ゲージ</t>
+  </si>
+  <si>
+    <t>アクシス</t>
+  </si>
+  <si>
+    <t>ユニオン</t>
+  </si>
+  <si>
+    <t>キラー</t>
+  </si>
+  <si>
+    <t>仲間を弾いて敵へ撃ちこむ</t>
+  </si>
+  <si>
+    <t>仲間にふれると</t>
+  </si>
+  <si>
+    <t>自分を中心に無属性の</t>
+  </si>
+  <si>
+    <t>敵にバウンドする毎に</t>
+  </si>
+  <si>
+    <t>ふれた最初の敵を乱打し</t>
+  </si>
+  <si>
+    <t>3発の無属性衝撃波で攻撃</t>
+  </si>
+  <si>
+    <t>ふれた仲間を一定期間</t>
+  </si>
+  <si>
+    <t>敵の弱点にヒットした際に超ダメージを与える</t>
+  </si>
+  <si>
+    <t>天下一のカリスマで、仲間を導いて敵へ撃ちこむ</t>
+  </si>
+  <si>
+    <t>合体した闇武で、味方のHPが少ないほど強力な連撃を放つ</t>
+  </si>
+  <si>
+    <t>水の精霊の力で、ヒットしたボスの弱点を全て出現させる</t>
+  </si>
+  <si>
+    <t>自身のスピードとパワーが大アップ＆ビットンに大ダメージ</t>
+  </si>
+  <si>
+    <t>アップ</t>
+  </si>
+  <si>
+    <t>レーザーで追い討ち</t>
+  </si>
+  <si>
+    <t>パワー</t>
+  </si>
+  <si>
+    <t>破盾</t>
+  </si>
+  <si>
+    <t>防傷害牆壁</t>
+  </si>
+  <si>
+    <t>無視黑洞</t>
+  </si>
+  <si>
+    <t>對魔族﹑魔人族傷害提升</t>
+  </si>
+  <si>
+    <t>機械</t>
+  </si>
+  <si>
+    <t>獸</t>
+  </si>
+  <si>
+    <t>人類</t>
+  </si>
+  <si>
+    <t>礦物</t>
+  </si>
+  <si>
+    <t>龍族</t>
+  </si>
+  <si>
+    <t>宇宙族</t>
+  </si>
+  <si>
+    <t>幻獸</t>
+  </si>
+  <si>
+    <t>蓄力攻擊</t>
+  </si>
+  <si>
+    <t>軸心國</t>
+  </si>
+  <si>
+    <t>同盟國</t>
+  </si>
+  <si>
+    <t>殺手</t>
+  </si>
+  <si>
+    <t>將隊友彈出以攻擊敵人（被彈出者無視毒牆）</t>
+  </si>
+  <si>
+    <t>撞擊到隊友的話</t>
+  </si>
+  <si>
+    <t>以自己為中心無屬性的</t>
+  </si>
+  <si>
+    <t>每次撞到敵人或是邊線時</t>
+  </si>
+  <si>
+    <t>對第一個接觸到的敵人進行連擊</t>
+  </si>
+  <si>
+    <t>以三發無屬性的衝擊波攻擊</t>
+  </si>
+  <si>
+    <t>接觸到的隊友在一定期間</t>
+  </si>
+  <si>
+    <t>對接觸到的第一個敵方進行連擊</t>
+  </si>
+  <si>
+    <t>擊中敵人弱點時給予強大傷害</t>
+  </si>
+  <si>
+    <t>以天下第一的魅力，引導隊友擊向敵人</t>
+  </si>
+  <si>
+    <t>以合體後的闇武，我方HP越低將釋放越強力的連擊</t>
+  </si>
+  <si>
+    <t>以水精靈之力，將其擊中的頭目之所有弱點全部顯現</t>
+  </si>
+  <si>
+    <t>將自身速度和力量大大提升，並能對比特盾造成強大傷害</t>
+  </si>
+  <si>
+    <t>提昇</t>
+  </si>
+  <si>
+    <t>並以雷射追擊</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,21 +400,97 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF9D7AC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -230,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +511,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +825,7 @@
   <dimension ref="A1:K779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -572,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -589,16 +888,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -615,16 +914,16 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -641,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -667,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -693,16 +992,16 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,16 +1018,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -771,16 +1070,16 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,16 +1096,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,16 +1122,16 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -849,19 +1148,19 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -875,19 +1174,19 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -897,8 +1196,23 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -908,8 +1222,23 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -919,8 +1248,23 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -930,8 +1274,23 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -941,8 +1300,23 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -952,8 +1326,23 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -963,8 +1352,23 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -974,8 +1378,23 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -985,8 +1404,23 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1430,23 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1456,23 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1482,23 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1508,23 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1534,23 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1560,23 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1586,23 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1612,23 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1638,23 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1664,23 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1690,23 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1716,23 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1128,8 +1742,23 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1768,23 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1794,23 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1820,23 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1846,23 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1183,8 +1872,23 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1194,8 +1898,23 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1924,23 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1216,8 +1950,23 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1227,8 +1976,23 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1238,8 +2002,23 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +2028,23 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1259,6 +2053,21 @@
       </c>
       <c r="C48" t="s">
         <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
